--- a/biology/Botanique/Würzer/Würzer.xlsx
+++ b/biology/Botanique/Würzer/Würzer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>W%C3%BCrzer</t>
+          <t>Würzer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le würzer  est un cépage de cuve allemand de raisins blancs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>W%C3%BCrzer</t>
+          <t>Würzer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cépage est une obtention de Georg Scheu dans l'institut Landesanstalt für Rebenzüchtung à Alzey. L'origine génétique est vérifiée et c'est un croisement des cépages gewurztraminer x  müller-thurgau réalisé en 1932. Le cépage est autorisé dans de nombreux Länder en Allemagne. La superficie plantée est en régression passant de 121 hectares en 1994 à 97 hectares en 2001. En Belgique, il est autorisé pour les AOCs flamandes Hageland [1] et Haspengouw [2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cépage est une obtention de Georg Scheu dans l'institut Landesanstalt für Rebenzüchtung à Alzey. L'origine génétique est vérifiée et c'est un croisement des cépages gewurztraminer x  müller-thurgau réalisé en 1932. Le cépage est autorisé dans de nombreux Länder en Allemagne. La superficie plantée est en régression passant de 121 hectares en 1994 à 97 hectares en 2001. En Belgique, il est autorisé pour les AOCs flamandes Hageland  et Haspengouw .
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>W%C3%BCrzer</t>
+          <t>Würzer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux blanc
 Feuilles adultes, à 5 lobes, avec un sinus pétiolaire elliptique, étroit, dents ogivales et moyennes.</t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>W%C3%BCrzer</t>
+          <t>Würzer</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de première époque tardive: 5 - 6  jours après  le chasselas.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>W%C3%BCrzer</t>
+          <t>Würzer</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes et les baies sont de taille moyenne. La grappe est cylindrique et moyennement compacte. Le cépage est de bonne vigueur et fertile. Il est légèrement sensible à la pourriture grise. Le cépage donne des vins blanc très aromatique. En vendange tardive, la qualité des vins est élevée.
 </t>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>W%C3%BCrzer</t>
+          <t>Würzer</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,7 +656,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le würzer  est connu sous le sigle AZ 10.487
 </t>
